--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Bsg-Slc16a1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Bsg-Slc16a1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.2270810484748</v>
+        <v>27.74560566666667</v>
       </c>
       <c r="H2">
-        <v>22.2270810484748</v>
+        <v>83.236817</v>
       </c>
       <c r="I2">
-        <v>0.08211218306546231</v>
+        <v>0.09876594060802939</v>
       </c>
       <c r="J2">
-        <v>0.08211218306546231</v>
+        <v>0.0987659406080294</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.93293906869528</v>
+        <v>2.125868333333333</v>
       </c>
       <c r="N2">
-        <v>1.93293906869528</v>
+        <v>6.377605</v>
       </c>
       <c r="O2">
-        <v>0.04640516996950159</v>
+        <v>0.0481684667844634</v>
       </c>
       <c r="P2">
-        <v>0.04640516996950159</v>
+        <v>0.04816846678446341</v>
       </c>
       <c r="Q2">
-        <v>42.96359334165339</v>
+        <v>58.98350447592056</v>
       </c>
       <c r="R2">
-        <v>42.96359334165339</v>
+        <v>530.851540283285</v>
       </c>
       <c r="S2">
-        <v>0.003810429811719609</v>
+        <v>0.004757403929614149</v>
       </c>
       <c r="T2">
-        <v>0.003810429811719609</v>
+        <v>0.00475740392961415</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.2270810484748</v>
+        <v>27.74560566666667</v>
       </c>
       <c r="H3">
-        <v>22.2270810484748</v>
+        <v>83.236817</v>
       </c>
       <c r="I3">
-        <v>0.08211218306546231</v>
+        <v>0.09876594060802939</v>
       </c>
       <c r="J3">
-        <v>0.08211218306546231</v>
+        <v>0.0987659406080294</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>21.5305705021975</v>
+        <v>21.72753966666667</v>
       </c>
       <c r="N3">
-        <v>21.5305705021975</v>
+        <v>65.182619</v>
       </c>
       <c r="O3">
-        <v>0.5168966781602783</v>
+        <v>0.4923081342017628</v>
       </c>
       <c r="P3">
-        <v>0.5168966781602783</v>
+        <v>0.4923081342017628</v>
       </c>
       <c r="Q3">
-        <v>478.5617355722446</v>
+        <v>602.8437476981915</v>
       </c>
       <c r="R3">
-        <v>478.5617355722446</v>
+        <v>5425.593729283723</v>
       </c>
       <c r="S3">
-        <v>0.04244351466302612</v>
+        <v>0.04862327594342106</v>
       </c>
       <c r="T3">
-        <v>0.04244351466302612</v>
+        <v>0.04862327594342108</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.2270810484748</v>
+        <v>27.74560566666667</v>
       </c>
       <c r="H4">
-        <v>22.2270810484748</v>
+        <v>83.236817</v>
       </c>
       <c r="I4">
-        <v>0.08211218306546231</v>
+        <v>0.09876594060802939</v>
       </c>
       <c r="J4">
-        <v>0.08211218306546231</v>
+        <v>0.0987659406080294</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.50489412478436</v>
+        <v>5.311063</v>
       </c>
       <c r="N4">
-        <v>3.50489412478436</v>
+        <v>15.933189</v>
       </c>
       <c r="O4">
-        <v>0.08414399099269596</v>
+        <v>0.120339419753509</v>
       </c>
       <c r="P4">
-        <v>0.08414399099269596</v>
+        <v>0.120339419753509</v>
       </c>
       <c r="Q4">
-        <v>77.90356577790511</v>
+        <v>147.3586596688237</v>
       </c>
       <c r="R4">
-        <v>77.90356577790511</v>
+        <v>1326.227937019413</v>
       </c>
       <c r="S4">
-        <v>0.006909246792250862</v>
+        <v>0.01188543598417979</v>
       </c>
       <c r="T4">
-        <v>0.006909246792250862</v>
+        <v>0.01188543598417979</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.2270810484748</v>
+        <v>27.74560566666667</v>
       </c>
       <c r="H5">
-        <v>22.2270810484748</v>
+        <v>83.236817</v>
       </c>
       <c r="I5">
-        <v>0.08211218306546231</v>
+        <v>0.09876594060802939</v>
       </c>
       <c r="J5">
-        <v>0.08211218306546231</v>
+        <v>0.0987659406080294</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.08993538729098</v>
+        <v>3.186735666666666</v>
       </c>
       <c r="N5">
-        <v>3.08993538729098</v>
+        <v>9.560206999999998</v>
       </c>
       <c r="O5">
-        <v>0.07418184006120905</v>
+        <v>0.0722058693399943</v>
       </c>
       <c r="P5">
-        <v>0.07418184006120905</v>
+        <v>0.07220586933999433</v>
       </c>
       <c r="Q5">
-        <v>68.68024428786698</v>
+        <v>88.41791117123542</v>
       </c>
       <c r="R5">
-        <v>68.68024428786698</v>
+        <v>795.7612005411189</v>
       </c>
       <c r="S5">
-        <v>0.006091232831238843</v>
+        <v>0.007131480602785008</v>
       </c>
       <c r="T5">
-        <v>0.006091232831238843</v>
+        <v>0.007131480602785011</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>22.2270810484748</v>
+        <v>27.74560566666667</v>
       </c>
       <c r="H6">
-        <v>22.2270810484748</v>
+        <v>83.236817</v>
       </c>
       <c r="I6">
-        <v>0.08211218306546231</v>
+        <v>0.09876594060802939</v>
       </c>
       <c r="J6">
-        <v>0.08211218306546231</v>
+        <v>0.0987659406080294</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.19965177937842</v>
+        <v>2.234847</v>
       </c>
       <c r="N6">
-        <v>2.19965177937842</v>
+        <v>6.704541</v>
       </c>
       <c r="O6">
-        <v>0.05280829403726224</v>
+        <v>0.05063773320291442</v>
       </c>
       <c r="P6">
-        <v>0.05280829403726224</v>
+        <v>0.05063773320291443</v>
       </c>
       <c r="Q6">
-        <v>48.89183837866595</v>
+        <v>62.007183587333</v>
       </c>
       <c r="R6">
-        <v>48.89183837866595</v>
+        <v>558.064652285997</v>
       </c>
       <c r="S6">
-        <v>0.004336204307362439</v>
+        <v>0.005001283350044283</v>
       </c>
       <c r="T6">
-        <v>0.004336204307362439</v>
+        <v>0.005001283350044286</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>22.2270810484748</v>
+        <v>27.74560566666667</v>
       </c>
       <c r="H7">
-        <v>22.2270810484748</v>
+        <v>83.236817</v>
       </c>
       <c r="I7">
-        <v>0.08211218306546231</v>
+        <v>0.09876594060802939</v>
       </c>
       <c r="J7">
-        <v>0.08211218306546231</v>
+        <v>0.0987659406080294</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.395537612296399</v>
+        <v>9.547971666666667</v>
       </c>
       <c r="N7">
-        <v>9.395537612296399</v>
+        <v>28.643915</v>
       </c>
       <c r="O7">
-        <v>0.2255640267790528</v>
+        <v>0.216340376717356</v>
       </c>
       <c r="P7">
-        <v>0.2255640267790528</v>
+        <v>0.216340376717356</v>
       </c>
       <c r="Q7">
-        <v>208.8353760025055</v>
+        <v>264.9142567798394</v>
       </c>
       <c r="R7">
-        <v>208.8353760025055</v>
+        <v>2384.228311018555</v>
       </c>
       <c r="S7">
-        <v>0.01852155465986443</v>
+        <v>0.02136706079798508</v>
       </c>
       <c r="T7">
-        <v>0.01852155465986443</v>
+        <v>0.02136706079798509</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>89.0507986010757</v>
+        <v>89.21979766666668</v>
       </c>
       <c r="H8">
-        <v>89.0507986010757</v>
+        <v>267.659393</v>
       </c>
       <c r="I8">
-        <v>0.3289750669874349</v>
+        <v>0.3175954182897119</v>
       </c>
       <c r="J8">
-        <v>0.3289750669874349</v>
+        <v>0.3175954182897119</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.93293906869528</v>
+        <v>2.125868333333333</v>
       </c>
       <c r="N8">
-        <v>1.93293906869528</v>
+        <v>6.377605</v>
       </c>
       <c r="O8">
-        <v>0.04640516996950159</v>
+        <v>0.0481684667844634</v>
       </c>
       <c r="P8">
-        <v>0.04640516996950159</v>
+        <v>0.04816846678446341</v>
       </c>
       <c r="Q8">
-        <v>172.1297677145342</v>
+        <v>189.6695425659739</v>
       </c>
       <c r="R8">
-        <v>172.1297677145342</v>
+        <v>1707.025883093765</v>
       </c>
       <c r="S8">
-        <v>0.01526614389928009</v>
+        <v>0.01529808435678575</v>
       </c>
       <c r="T8">
-        <v>0.01526614389928009</v>
+        <v>0.01529808435678575</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>89.0507986010757</v>
+        <v>89.21979766666668</v>
       </c>
       <c r="H9">
-        <v>89.0507986010757</v>
+        <v>267.659393</v>
       </c>
       <c r="I9">
-        <v>0.3289750669874349</v>
+        <v>0.3175954182897119</v>
       </c>
       <c r="J9">
-        <v>0.3289750669874349</v>
+        <v>0.3175954182897119</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>21.5305705021975</v>
+        <v>21.72753966666667</v>
       </c>
       <c r="N9">
-        <v>21.5305705021975</v>
+        <v>65.182619</v>
       </c>
       <c r="O9">
-        <v>0.5168966781602783</v>
+        <v>0.4923081342017628</v>
       </c>
       <c r="P9">
-        <v>0.5168966781602783</v>
+        <v>0.4923081342017628</v>
       </c>
       <c r="Q9">
-        <v>1917.314497557451</v>
+        <v>1938.526692854475</v>
       </c>
       <c r="R9">
-        <v>1917.314497557451</v>
+        <v>17446.74023569027</v>
       </c>
       <c r="S9">
-        <v>0.1700461193233601</v>
+        <v>0.1563548078092365</v>
       </c>
       <c r="T9">
-        <v>0.1700461193233601</v>
+        <v>0.1563548078092365</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>89.0507986010757</v>
+        <v>89.21979766666668</v>
       </c>
       <c r="H10">
-        <v>89.0507986010757</v>
+        <v>267.659393</v>
       </c>
       <c r="I10">
-        <v>0.3289750669874349</v>
+        <v>0.3175954182897119</v>
       </c>
       <c r="J10">
-        <v>0.3289750669874349</v>
+        <v>0.3175954182897119</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.50489412478436</v>
+        <v>5.311063</v>
       </c>
       <c r="N10">
-        <v>3.50489412478436</v>
+        <v>15.933189</v>
       </c>
       <c r="O10">
-        <v>0.08414399099269596</v>
+        <v>0.120339419753509</v>
       </c>
       <c r="P10">
-        <v>0.08414399099269596</v>
+        <v>0.120339419753509</v>
       </c>
       <c r="Q10">
-        <v>312.1136208242655</v>
+        <v>473.8519662549197</v>
       </c>
       <c r="R10">
-        <v>312.1136208242655</v>
+        <v>4264.667696294277</v>
       </c>
       <c r="S10">
-        <v>0.02768127507341227</v>
+        <v>0.0382192483533569</v>
       </c>
       <c r="T10">
-        <v>0.02768127507341227</v>
+        <v>0.03821924835335691</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>89.0507986010757</v>
+        <v>89.21979766666668</v>
       </c>
       <c r="H11">
-        <v>89.0507986010757</v>
+        <v>267.659393</v>
       </c>
       <c r="I11">
-        <v>0.3289750669874349</v>
+        <v>0.3175954182897119</v>
       </c>
       <c r="J11">
-        <v>0.3289750669874349</v>
+        <v>0.3175954182897119</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.08993538729098</v>
+        <v>3.186735666666666</v>
       </c>
       <c r="N11">
-        <v>3.08993538729098</v>
+        <v>9.560206999999998</v>
       </c>
       <c r="O11">
-        <v>0.07418184006120905</v>
+        <v>0.0722058693399943</v>
       </c>
       <c r="P11">
-        <v>0.07418184006120905</v>
+        <v>0.07220586933999433</v>
       </c>
       <c r="Q11">
-        <v>275.1612138639859</v>
+        <v>284.3199113971501</v>
       </c>
       <c r="R11">
-        <v>275.1612138639859</v>
+        <v>2558.879202574351</v>
       </c>
       <c r="S11">
-        <v>0.02440397580338743</v>
+        <v>0.02293225327600777</v>
       </c>
       <c r="T11">
-        <v>0.02440397580338743</v>
+        <v>0.02293225327600778</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>89.0507986010757</v>
+        <v>89.21979766666668</v>
       </c>
       <c r="H12">
-        <v>89.0507986010757</v>
+        <v>267.659393</v>
       </c>
       <c r="I12">
-        <v>0.3289750669874349</v>
+        <v>0.3175954182897119</v>
       </c>
       <c r="J12">
-        <v>0.3289750669874349</v>
+        <v>0.3175954182897119</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.19965177937842</v>
+        <v>2.234847</v>
       </c>
       <c r="N12">
-        <v>2.19965177937842</v>
+        <v>6.704541</v>
       </c>
       <c r="O12">
-        <v>0.05280829403726224</v>
+        <v>0.05063773320291442</v>
       </c>
       <c r="P12">
-        <v>0.05280829403726224</v>
+        <v>0.05063773320291443</v>
       </c>
       <c r="Q12">
-        <v>195.8807475979254</v>
+        <v>199.392597155957</v>
       </c>
       <c r="R12">
-        <v>195.8807475979254</v>
+        <v>1794.533374403613</v>
       </c>
       <c r="S12">
-        <v>0.0173726120684005</v>
+        <v>0.01608231205782244</v>
       </c>
       <c r="T12">
-        <v>0.0173726120684005</v>
+        <v>0.01608231205782244</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>89.0507986010757</v>
+        <v>89.21979766666668</v>
       </c>
       <c r="H13">
-        <v>89.0507986010757</v>
+        <v>267.659393</v>
       </c>
       <c r="I13">
-        <v>0.3289750669874349</v>
+        <v>0.3175954182897119</v>
       </c>
       <c r="J13">
-        <v>0.3289750669874349</v>
+        <v>0.3175954182897119</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.395537612296399</v>
+        <v>9.547971666666667</v>
       </c>
       <c r="N13">
-        <v>9.395537612296399</v>
+        <v>28.643915</v>
       </c>
       <c r="O13">
-        <v>0.2255640267790528</v>
+        <v>0.216340376717356</v>
       </c>
       <c r="P13">
-        <v>0.2255640267790528</v>
+        <v>0.216340376717356</v>
       </c>
       <c r="Q13">
-        <v>836.6801276614383</v>
+        <v>851.8681002270663</v>
       </c>
       <c r="R13">
-        <v>836.6801276614383</v>
+        <v>7666.812902043595</v>
       </c>
       <c r="S13">
-        <v>0.07420494081959446</v>
+        <v>0.06870871243650252</v>
       </c>
       <c r="T13">
-        <v>0.07420494081959446</v>
+        <v>0.06870871243650253</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>43.3180701893251</v>
+        <v>45.73152166666667</v>
       </c>
       <c r="H14">
-        <v>43.3180701893251</v>
+        <v>137.194565</v>
       </c>
       <c r="I14">
-        <v>0.1600273693910196</v>
+        <v>0.1627903462302557</v>
       </c>
       <c r="J14">
-        <v>0.1600273693910196</v>
+        <v>0.1627903462302557</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.93293906869528</v>
+        <v>2.125868333333333</v>
       </c>
       <c r="N14">
-        <v>1.93293906869528</v>
+        <v>6.377605</v>
       </c>
       <c r="O14">
-        <v>0.04640516996950159</v>
+        <v>0.0481684667844634</v>
       </c>
       <c r="P14">
-        <v>0.04640516996950159</v>
+        <v>0.04816846678446341</v>
       </c>
       <c r="Q14">
-        <v>83.73119024943082</v>
+        <v>97.21919374631391</v>
       </c>
       <c r="R14">
-        <v>83.73119024943082</v>
+        <v>874.9727437168251</v>
       </c>
       <c r="S14">
-        <v>0.00742609727636248</v>
+        <v>0.007841361385223367</v>
       </c>
       <c r="T14">
-        <v>0.00742609727636248</v>
+        <v>0.007841361385223367</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>43.3180701893251</v>
+        <v>45.73152166666667</v>
       </c>
       <c r="H15">
-        <v>43.3180701893251</v>
+        <v>137.194565</v>
       </c>
       <c r="I15">
-        <v>0.1600273693910196</v>
+        <v>0.1627903462302557</v>
       </c>
       <c r="J15">
-        <v>0.1600273693910196</v>
+        <v>0.1627903462302557</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>21.5305705021975</v>
+        <v>21.72753966666667</v>
       </c>
       <c r="N15">
-        <v>21.5305705021975</v>
+        <v>65.182619</v>
       </c>
       <c r="O15">
-        <v>0.5168966781602783</v>
+        <v>0.4923081342017628</v>
       </c>
       <c r="P15">
-        <v>0.5168966781602783</v>
+        <v>0.4923081342017628</v>
       </c>
       <c r="Q15">
-        <v>932.6627642304038</v>
+        <v>993.6334510295263</v>
       </c>
       <c r="R15">
-        <v>932.6627642304038</v>
+        <v>8942.701059265735</v>
       </c>
       <c r="S15">
-        <v>0.08271761565294582</v>
+        <v>0.08014301161867612</v>
       </c>
       <c r="T15">
-        <v>0.08271761565294582</v>
+        <v>0.08014301161867614</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>43.3180701893251</v>
+        <v>45.73152166666667</v>
       </c>
       <c r="H16">
-        <v>43.3180701893251</v>
+        <v>137.194565</v>
       </c>
       <c r="I16">
-        <v>0.1600273693910196</v>
+        <v>0.1627903462302557</v>
       </c>
       <c r="J16">
-        <v>0.1600273693910196</v>
+        <v>0.1627903462302557</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.50489412478436</v>
+        <v>5.311063</v>
       </c>
       <c r="N16">
-        <v>3.50489412478436</v>
+        <v>15.933189</v>
       </c>
       <c r="O16">
-        <v>0.08414399099269596</v>
+        <v>0.120339419753509</v>
       </c>
       <c r="P16">
-        <v>0.08414399099269596</v>
+        <v>0.120339419753509</v>
       </c>
       <c r="Q16">
-        <v>151.8252497035621</v>
+        <v>242.8829926575317</v>
       </c>
       <c r="R16">
-        <v>151.8252497035621</v>
+        <v>2185.946933917785</v>
       </c>
       <c r="S16">
-        <v>0.01346534152862278</v>
+        <v>0.01959009580682179</v>
       </c>
       <c r="T16">
-        <v>0.01346534152862278</v>
+        <v>0.0195900958068218</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>43.3180701893251</v>
+        <v>45.73152166666667</v>
       </c>
       <c r="H17">
-        <v>43.3180701893251</v>
+        <v>137.194565</v>
       </c>
       <c r="I17">
-        <v>0.1600273693910196</v>
+        <v>0.1627903462302557</v>
       </c>
       <c r="J17">
-        <v>0.1600273693910196</v>
+        <v>0.1627903462302557</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.08993538729098</v>
+        <v>3.186735666666666</v>
       </c>
       <c r="N17">
-        <v>3.08993538729098</v>
+        <v>9.560206999999998</v>
       </c>
       <c r="O17">
-        <v>0.07418184006120905</v>
+        <v>0.0722058693399943</v>
       </c>
       <c r="P17">
-        <v>0.07418184006120905</v>
+        <v>0.07220586933999433</v>
       </c>
       <c r="Q17">
-        <v>133.8500379871501</v>
+        <v>145.7342711861061</v>
       </c>
       <c r="R17">
-        <v>133.8500379871501</v>
+        <v>1311.608440674955</v>
       </c>
       <c r="S17">
-        <v>0.01187112472158064</v>
+        <v>0.01175441846971427</v>
       </c>
       <c r="T17">
-        <v>0.01187112472158064</v>
+        <v>0.01175441846971428</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>43.3180701893251</v>
+        <v>45.73152166666667</v>
       </c>
       <c r="H18">
-        <v>43.3180701893251</v>
+        <v>137.194565</v>
       </c>
       <c r="I18">
-        <v>0.1600273693910196</v>
+        <v>0.1627903462302557</v>
       </c>
       <c r="J18">
-        <v>0.1600273693910196</v>
+        <v>0.1627903462302557</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.19965177937842</v>
+        <v>2.234847</v>
       </c>
       <c r="N18">
-        <v>2.19965177937842</v>
+        <v>6.704541</v>
       </c>
       <c r="O18">
-        <v>0.05280829403726224</v>
+        <v>0.05063773320291442</v>
       </c>
       <c r="P18">
-        <v>0.05280829403726224</v>
+        <v>0.05063773320291443</v>
       </c>
       <c r="Q18">
-        <v>95.28467017118824</v>
+        <v>102.202954002185</v>
       </c>
       <c r="R18">
-        <v>95.28467017118824</v>
+        <v>919.826586019665</v>
       </c>
       <c r="S18">
-        <v>0.008450772376810542</v>
+        <v>0.00824333412041775</v>
       </c>
       <c r="T18">
-        <v>0.008450772376810542</v>
+        <v>0.008243334120417754</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>43.3180701893251</v>
+        <v>45.73152166666667</v>
       </c>
       <c r="H19">
-        <v>43.3180701893251</v>
+        <v>137.194565</v>
       </c>
       <c r="I19">
-        <v>0.1600273693910196</v>
+        <v>0.1627903462302557</v>
       </c>
       <c r="J19">
-        <v>0.1600273693910196</v>
+        <v>0.1627903462302557</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>9.395537612296399</v>
+        <v>9.547971666666667</v>
       </c>
       <c r="N19">
-        <v>9.395537612296399</v>
+        <v>28.643915</v>
       </c>
       <c r="O19">
-        <v>0.2255640267790528</v>
+        <v>0.216340376717356</v>
       </c>
       <c r="P19">
-        <v>0.2255640267790528</v>
+        <v>0.216340376717356</v>
       </c>
       <c r="Q19">
-        <v>406.9965577558993</v>
+        <v>436.6432731468862</v>
       </c>
       <c r="R19">
-        <v>406.9965577558993</v>
+        <v>3929.789458321975</v>
       </c>
       <c r="S19">
-        <v>0.03609641783469732</v>
+        <v>0.03521812482940232</v>
       </c>
       <c r="T19">
-        <v>0.03609641783469732</v>
+        <v>0.03521812482940232</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>44.9233520869604</v>
+        <v>45.201959</v>
       </c>
       <c r="H20">
-        <v>44.9233520869604</v>
+        <v>135.605877</v>
       </c>
       <c r="I20">
-        <v>0.1659576667954711</v>
+        <v>0.160905263759446</v>
       </c>
       <c r="J20">
-        <v>0.1659576667954711</v>
+        <v>0.160905263759446</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.93293906869528</v>
+        <v>2.125868333333333</v>
       </c>
       <c r="N20">
-        <v>1.93293906869528</v>
+        <v>6.377605</v>
       </c>
       <c r="O20">
-        <v>0.04640516996950159</v>
+        <v>0.0481684667844634</v>
       </c>
       <c r="P20">
-        <v>0.04640516996950159</v>
+        <v>0.04816846678446341</v>
       </c>
       <c r="Q20">
-        <v>86.83410234563941</v>
+        <v>96.09341324273166</v>
       </c>
       <c r="R20">
-        <v>86.83410234563941</v>
+        <v>864.8407191845849</v>
       </c>
       <c r="S20">
-        <v>0.007701293735385745</v>
+        <v>0.007750559852842197</v>
       </c>
       <c r="T20">
-        <v>0.007701293735385745</v>
+        <v>0.007750559852842199</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>44.9233520869604</v>
+        <v>45.201959</v>
       </c>
       <c r="H21">
-        <v>44.9233520869604</v>
+        <v>135.605877</v>
       </c>
       <c r="I21">
-        <v>0.1659576667954711</v>
+        <v>0.160905263759446</v>
       </c>
       <c r="J21">
-        <v>0.1659576667954711</v>
+        <v>0.160905263759446</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>21.5305705021975</v>
+        <v>21.72753966666667</v>
       </c>
       <c r="N21">
-        <v>21.5305705021975</v>
+        <v>65.182619</v>
       </c>
       <c r="O21">
-        <v>0.5168966781602783</v>
+        <v>0.4923081342017628</v>
       </c>
       <c r="P21">
-        <v>0.5168966781602783</v>
+        <v>0.4923081342017628</v>
       </c>
       <c r="Q21">
-        <v>967.225399303342</v>
+        <v>982.1273571835403</v>
       </c>
       <c r="R21">
-        <v>967.225399303342</v>
+        <v>8839.146214651862</v>
       </c>
       <c r="S21">
-        <v>0.08578296668180931</v>
+        <v>0.07921497018465537</v>
       </c>
       <c r="T21">
-        <v>0.08578296668180931</v>
+        <v>0.07921497018465538</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>44.9233520869604</v>
+        <v>45.201959</v>
       </c>
       <c r="H22">
-        <v>44.9233520869604</v>
+        <v>135.605877</v>
       </c>
       <c r="I22">
-        <v>0.1659576667954711</v>
+        <v>0.160905263759446</v>
       </c>
       <c r="J22">
-        <v>0.1659576667954711</v>
+        <v>0.160905263759446</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.50489412478436</v>
+        <v>5.311063</v>
       </c>
       <c r="N22">
-        <v>3.50489412478436</v>
+        <v>15.933189</v>
       </c>
       <c r="O22">
-        <v>0.08414399099269596</v>
+        <v>0.120339419753509</v>
       </c>
       <c r="P22">
-        <v>0.08414399099269596</v>
+        <v>0.120339419753509</v>
       </c>
       <c r="Q22">
-        <v>157.4515927952067</v>
+        <v>240.070451972417</v>
       </c>
       <c r="R22">
-        <v>157.4515927952067</v>
+        <v>2160.634067751753</v>
       </c>
       <c r="S22">
-        <v>0.01396434042000695</v>
+        <v>0.01936324607609705</v>
       </c>
       <c r="T22">
-        <v>0.01396434042000695</v>
+        <v>0.01936324607609705</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>44.9233520869604</v>
+        <v>45.201959</v>
       </c>
       <c r="H23">
-        <v>44.9233520869604</v>
+        <v>135.605877</v>
       </c>
       <c r="I23">
-        <v>0.1659576667954711</v>
+        <v>0.160905263759446</v>
       </c>
       <c r="J23">
-        <v>0.1659576667954711</v>
+        <v>0.160905263759446</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.08993538729098</v>
+        <v>3.186735666666666</v>
       </c>
       <c r="N23">
-        <v>3.08993538729098</v>
+        <v>9.560206999999998</v>
       </c>
       <c r="O23">
-        <v>0.07418184006120905</v>
+        <v>0.0722058693399943</v>
       </c>
       <c r="P23">
-        <v>0.07418184006120905</v>
+        <v>0.07220586933999433</v>
       </c>
       <c r="Q23">
-        <v>138.810255329231</v>
+        <v>144.0466949485043</v>
       </c>
       <c r="R23">
-        <v>138.810255329231</v>
+        <v>1296.420254536539</v>
       </c>
       <c r="S23">
-        <v>0.01231104509515306</v>
+        <v>0.01161830445113188</v>
       </c>
       <c r="T23">
-        <v>0.01231104509515306</v>
+        <v>0.01161830445113188</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>44.9233520869604</v>
+        <v>45.201959</v>
       </c>
       <c r="H24">
-        <v>44.9233520869604</v>
+        <v>135.605877</v>
       </c>
       <c r="I24">
-        <v>0.1659576667954711</v>
+        <v>0.160905263759446</v>
       </c>
       <c r="J24">
-        <v>0.1659576667954711</v>
+        <v>0.160905263759446</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.19965177937842</v>
+        <v>2.234847</v>
       </c>
       <c r="N24">
-        <v>2.19965177937842</v>
+        <v>6.704541</v>
       </c>
       <c r="O24">
-        <v>0.05280829403726224</v>
+        <v>0.05063773320291442</v>
       </c>
       <c r="P24">
-        <v>0.05280829403726224</v>
+        <v>0.05063773320291443</v>
       </c>
       <c r="Q24">
-        <v>98.8157313537257</v>
+        <v>101.019462465273</v>
       </c>
       <c r="R24">
-        <v>98.8157313537257</v>
+        <v>909.175162187457</v>
       </c>
       <c r="S24">
-        <v>0.008763941265873227</v>
+        <v>0.008147877817195399</v>
       </c>
       <c r="T24">
-        <v>0.008763941265873227</v>
+        <v>0.008147877817195403</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>44.9233520869604</v>
+        <v>45.201959</v>
       </c>
       <c r="H25">
-        <v>44.9233520869604</v>
+        <v>135.605877</v>
       </c>
       <c r="I25">
-        <v>0.1659576667954711</v>
+        <v>0.160905263759446</v>
       </c>
       <c r="J25">
-        <v>0.1659576667954711</v>
+        <v>0.160905263759446</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>9.395537612296399</v>
+        <v>9.547971666666667</v>
       </c>
       <c r="N25">
-        <v>9.395537612296399</v>
+        <v>28.643915</v>
       </c>
       <c r="O25">
-        <v>0.2255640267790528</v>
+        <v>0.216340376717356</v>
       </c>
       <c r="P25">
-        <v>0.2255640267790528</v>
+        <v>0.216340376717356</v>
       </c>
       <c r="Q25">
-        <v>422.0790442034704</v>
+        <v>431.5870238098283</v>
       </c>
       <c r="R25">
-        <v>422.0790442034704</v>
+        <v>3884.283214288455</v>
       </c>
       <c r="S25">
-        <v>0.03743407959724276</v>
+        <v>0.03481030537752407</v>
       </c>
       <c r="T25">
-        <v>0.03743407959724276</v>
+        <v>0.03481030537752408</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>34.361917978285</v>
+        <v>34.622288</v>
       </c>
       <c r="H26">
-        <v>34.361917978285</v>
+        <v>103.866864</v>
       </c>
       <c r="I26">
-        <v>0.1269411891448944</v>
+        <v>0.1232448439368635</v>
       </c>
       <c r="J26">
-        <v>0.1269411891448944</v>
+        <v>0.1232448439368635</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.93293906869528</v>
+        <v>2.125868333333333</v>
       </c>
       <c r="N26">
-        <v>1.93293906869528</v>
+        <v>6.377605</v>
       </c>
       <c r="O26">
-        <v>0.04640516996950159</v>
+        <v>0.0481684667844634</v>
       </c>
       <c r="P26">
-        <v>0.04640516996950159</v>
+        <v>0.04816846678446341</v>
       </c>
       <c r="Q26">
-        <v>66.41949373552981</v>
+        <v>73.60242568674667</v>
       </c>
       <c r="R26">
-        <v>66.41949373552981</v>
+        <v>662.42183118072</v>
       </c>
       <c r="S26">
-        <v>0.005890727458399477</v>
+        <v>0.005936515171529185</v>
       </c>
       <c r="T26">
-        <v>0.005890727458399477</v>
+        <v>0.005936515171529187</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>34.361917978285</v>
+        <v>34.622288</v>
       </c>
       <c r="H27">
-        <v>34.361917978285</v>
+        <v>103.866864</v>
       </c>
       <c r="I27">
-        <v>0.1269411891448944</v>
+        <v>0.1232448439368635</v>
       </c>
       <c r="J27">
-        <v>0.1269411891448944</v>
+        <v>0.1232448439368635</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>21.5305705021975</v>
+        <v>21.72753966666667</v>
       </c>
       <c r="N27">
-        <v>21.5305705021975</v>
+        <v>65.182619</v>
       </c>
       <c r="O27">
-        <v>0.5168966781602783</v>
+        <v>0.4923081342017628</v>
       </c>
       <c r="P27">
-        <v>0.5168966781602783</v>
+        <v>0.4923081342017628</v>
       </c>
       <c r="Q27">
-        <v>739.8316976221929</v>
+        <v>752.2571358707573</v>
       </c>
       <c r="R27">
-        <v>739.8316976221929</v>
+        <v>6770.314222836816</v>
       </c>
       <c r="S27">
-        <v>0.06561547899071152</v>
+        <v>0.0606744391685447</v>
       </c>
       <c r="T27">
-        <v>0.06561547899071152</v>
+        <v>0.06067443916854471</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>34.361917978285</v>
+        <v>34.622288</v>
       </c>
       <c r="H28">
-        <v>34.361917978285</v>
+        <v>103.866864</v>
       </c>
       <c r="I28">
-        <v>0.1269411891448944</v>
+        <v>0.1232448439368635</v>
       </c>
       <c r="J28">
-        <v>0.1269411891448944</v>
+        <v>0.1232448439368635</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>3.50489412478436</v>
+        <v>5.311063</v>
       </c>
       <c r="N28">
-        <v>3.50489412478436</v>
+        <v>15.933189</v>
       </c>
       <c r="O28">
-        <v>0.08414399099269596</v>
+        <v>0.120339419753509</v>
       </c>
       <c r="P28">
-        <v>0.08414399099269596</v>
+        <v>0.120339419753509</v>
       </c>
       <c r="Q28">
-        <v>120.4348844384132</v>
+        <v>183.881152772144</v>
       </c>
       <c r="R28">
-        <v>120.4348844384132</v>
+        <v>1654.930374949296</v>
       </c>
       <c r="S28">
-        <v>0.01068133827601011</v>
+        <v>0.01483121300697392</v>
       </c>
       <c r="T28">
-        <v>0.01068133827601011</v>
+        <v>0.01483121300697393</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>34.361917978285</v>
+        <v>34.622288</v>
       </c>
       <c r="H29">
-        <v>34.361917978285</v>
+        <v>103.866864</v>
       </c>
       <c r="I29">
-        <v>0.1269411891448944</v>
+        <v>0.1232448439368635</v>
       </c>
       <c r="J29">
-        <v>0.1269411891448944</v>
+        <v>0.1232448439368635</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>3.08993538729098</v>
+        <v>3.186735666666666</v>
       </c>
       <c r="N29">
-        <v>3.08993538729098</v>
+        <v>9.560206999999998</v>
       </c>
       <c r="O29">
-        <v>0.07418184006120905</v>
+        <v>0.0722058693399943</v>
       </c>
       <c r="P29">
-        <v>0.07418184006120905</v>
+        <v>0.07220586933999433</v>
       </c>
       <c r="Q29">
-        <v>106.1761063362929</v>
+        <v>110.3320800312053</v>
       </c>
       <c r="R29">
-        <v>106.1761063362929</v>
+        <v>992.9887202808477</v>
       </c>
       <c r="S29">
-        <v>0.009416730990326246</v>
+        <v>0.008899001098133153</v>
       </c>
       <c r="T29">
-        <v>0.009416730990326246</v>
+        <v>0.008899001098133158</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>34.361917978285</v>
+        <v>34.622288</v>
       </c>
       <c r="H30">
-        <v>34.361917978285</v>
+        <v>103.866864</v>
       </c>
       <c r="I30">
-        <v>0.1269411891448944</v>
+        <v>0.1232448439368635</v>
       </c>
       <c r="J30">
-        <v>0.1269411891448944</v>
+        <v>0.1232448439368635</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.19965177937842</v>
+        <v>2.234847</v>
       </c>
       <c r="N30">
-        <v>2.19965177937842</v>
+        <v>6.704541</v>
       </c>
       <c r="O30">
-        <v>0.05280829403726224</v>
+        <v>0.05063773320291442</v>
       </c>
       <c r="P30">
-        <v>0.05280829403726224</v>
+        <v>0.05063773320291443</v>
       </c>
       <c r="Q30">
-        <v>75.58425402378991</v>
+        <v>77.37551646993599</v>
       </c>
       <c r="R30">
-        <v>75.58425402378991</v>
+        <v>696.379648229424</v>
       </c>
       <c r="S30">
-        <v>0.006703547641803307</v>
+        <v>0.006240839525909717</v>
       </c>
       <c r="T30">
-        <v>0.006703547641803307</v>
+        <v>0.00624083952590972</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>34.361917978285</v>
+        <v>34.622288</v>
       </c>
       <c r="H31">
-        <v>34.361917978285</v>
+        <v>103.866864</v>
       </c>
       <c r="I31">
-        <v>0.1269411891448944</v>
+        <v>0.1232448439368635</v>
       </c>
       <c r="J31">
-        <v>0.1269411891448944</v>
+        <v>0.1232448439368635</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>9.395537612296399</v>
+        <v>9.547971666666667</v>
       </c>
       <c r="N31">
-        <v>9.395537612296399</v>
+        <v>28.643915</v>
       </c>
       <c r="O31">
-        <v>0.2255640267790528</v>
+        <v>0.216340376717356</v>
       </c>
       <c r="P31">
-        <v>0.2255640267790528</v>
+        <v>0.216340376717356</v>
       </c>
       <c r="Q31">
-        <v>322.8486927956206</v>
+        <v>330.5726248591733</v>
       </c>
       <c r="R31">
-        <v>322.8486927956206</v>
+        <v>2975.15362373256</v>
       </c>
       <c r="S31">
-        <v>0.02863336578764378</v>
+        <v>0.02666283596577279</v>
       </c>
       <c r="T31">
-        <v>0.02863336578764378</v>
+        <v>0.0266628359657728</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>36.8104146217167</v>
+        <v>38.401639</v>
       </c>
       <c r="H32">
-        <v>36.8104146217167</v>
+        <v>115.204917</v>
       </c>
       <c r="I32">
-        <v>0.1359865246157178</v>
+        <v>0.1366981871756936</v>
       </c>
       <c r="J32">
-        <v>0.1359865246157178</v>
+        <v>0.1366981871756936</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.93293906869528</v>
+        <v>2.125868333333333</v>
       </c>
       <c r="N32">
-        <v>1.93293906869528</v>
+        <v>6.377605</v>
       </c>
       <c r="O32">
-        <v>0.04640516996950159</v>
+        <v>0.0481684667844634</v>
       </c>
       <c r="P32">
-        <v>0.04640516996950159</v>
+        <v>0.04816846678446341</v>
       </c>
       <c r="Q32">
-        <v>71.1522885571882</v>
+        <v>81.63682829819832</v>
       </c>
       <c r="R32">
-        <v>71.1522885571882</v>
+        <v>734.7314546837849</v>
       </c>
       <c r="S32">
-        <v>0.006310477788354195</v>
+        <v>0.006584542088468758</v>
       </c>
       <c r="T32">
-        <v>0.006310477788354195</v>
+        <v>0.006584542088468759</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>36.8104146217167</v>
+        <v>38.401639</v>
       </c>
       <c r="H33">
-        <v>36.8104146217167</v>
+        <v>115.204917</v>
       </c>
       <c r="I33">
-        <v>0.1359865246157178</v>
+        <v>0.1366981871756936</v>
       </c>
       <c r="J33">
-        <v>0.1359865246157178</v>
+        <v>0.1366981871756936</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>21.5305705021975</v>
+        <v>21.72753966666667</v>
       </c>
       <c r="N33">
-        <v>21.5305705021975</v>
+        <v>65.182619</v>
       </c>
       <c r="O33">
-        <v>0.5168966781602783</v>
+        <v>0.4923081342017628</v>
       </c>
       <c r="P33">
-        <v>0.5168966781602783</v>
+        <v>0.4923081342017628</v>
       </c>
       <c r="Q33">
-        <v>792.5492272279931</v>
+        <v>834.3731346375137</v>
       </c>
       <c r="R33">
-        <v>792.5492272279931</v>
+        <v>7509.358211737623</v>
       </c>
       <c r="S33">
-        <v>0.07029098284842542</v>
+        <v>0.06729762947722905</v>
       </c>
       <c r="T33">
-        <v>0.07029098284842542</v>
+        <v>0.06729762947722906</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>36.8104146217167</v>
+        <v>38.401639</v>
       </c>
       <c r="H34">
-        <v>36.8104146217167</v>
+        <v>115.204917</v>
       </c>
       <c r="I34">
-        <v>0.1359865246157178</v>
+        <v>0.1366981871756936</v>
       </c>
       <c r="J34">
-        <v>0.1359865246157178</v>
+        <v>0.1366981871756936</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>3.50489412478436</v>
+        <v>5.311063</v>
       </c>
       <c r="N34">
-        <v>3.50489412478436</v>
+        <v>15.933189</v>
       </c>
       <c r="O34">
-        <v>0.08414399099269596</v>
+        <v>0.120339419753509</v>
       </c>
       <c r="P34">
-        <v>0.08414399099269596</v>
+        <v>0.120339419753509</v>
       </c>
       <c r="Q34">
-        <v>129.0166059385312</v>
+        <v>203.953524032257</v>
       </c>
       <c r="R34">
-        <v>129.0166059385312</v>
+        <v>1835.581716290313</v>
       </c>
       <c r="S34">
-        <v>0.01144244890239298</v>
+        <v>0.01645018052607953</v>
       </c>
       <c r="T34">
-        <v>0.01144244890239298</v>
+        <v>0.01645018052607953</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>36.8104146217167</v>
+        <v>38.401639</v>
       </c>
       <c r="H35">
-        <v>36.8104146217167</v>
+        <v>115.204917</v>
       </c>
       <c r="I35">
-        <v>0.1359865246157178</v>
+        <v>0.1366981871756936</v>
       </c>
       <c r="J35">
-        <v>0.1359865246157178</v>
+        <v>0.1366981871756936</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>3.08993538729098</v>
+        <v>3.186735666666666</v>
       </c>
       <c r="N35">
-        <v>3.08993538729098</v>
+        <v>9.560206999999998</v>
       </c>
       <c r="O35">
-        <v>0.07418184006120905</v>
+        <v>0.0722058693399943</v>
       </c>
       <c r="P35">
-        <v>0.07418184006120905</v>
+        <v>0.07220586933999433</v>
       </c>
       <c r="Q35">
-        <v>113.7418027604957</v>
+        <v>122.3758726597576</v>
       </c>
       <c r="R35">
-        <v>113.7418027604957</v>
+        <v>1101.382853937819</v>
       </c>
       <c r="S35">
-        <v>0.01008773061952284</v>
+        <v>0.009870411442222216</v>
       </c>
       <c r="T35">
-        <v>0.01008773061952284</v>
+        <v>0.00987041144222222</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>36.8104146217167</v>
+        <v>38.401639</v>
       </c>
       <c r="H36">
-        <v>36.8104146217167</v>
+        <v>115.204917</v>
       </c>
       <c r="I36">
-        <v>0.1359865246157178</v>
+        <v>0.1366981871756936</v>
       </c>
       <c r="J36">
-        <v>0.1359865246157178</v>
+        <v>0.1366981871756936</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.19965177937842</v>
+        <v>2.234847</v>
       </c>
       <c r="N36">
-        <v>2.19965177937842</v>
+        <v>6.704541</v>
       </c>
       <c r="O36">
-        <v>0.05280829403726224</v>
+        <v>0.05063773320291442</v>
       </c>
       <c r="P36">
-        <v>0.05280829403726224</v>
+        <v>0.05063773320291443</v>
       </c>
       <c r="Q36">
-        <v>80.97009402231654</v>
+        <v>85.82178771423298</v>
       </c>
       <c r="R36">
-        <v>80.97009402231654</v>
+        <v>772.396089428097</v>
       </c>
       <c r="S36">
-        <v>0.007181216377012222</v>
+        <v>0.006922086331524829</v>
       </c>
       <c r="T36">
-        <v>0.007181216377012222</v>
+        <v>0.006922086331524832</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>36.8104146217167</v>
+        <v>38.401639</v>
       </c>
       <c r="H37">
-        <v>36.8104146217167</v>
+        <v>115.204917</v>
       </c>
       <c r="I37">
-        <v>0.1359865246157178</v>
+        <v>0.1366981871756936</v>
       </c>
       <c r="J37">
-        <v>0.1359865246157178</v>
+        <v>0.1366981871756936</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>9.395537612296399</v>
+        <v>9.547971666666667</v>
       </c>
       <c r="N37">
-        <v>9.395537612296399</v>
+        <v>28.643915</v>
       </c>
       <c r="O37">
-        <v>0.2255640267790528</v>
+        <v>0.216340376717356</v>
       </c>
       <c r="P37">
-        <v>0.2255640267790528</v>
+        <v>0.216340376717356</v>
       </c>
       <c r="Q37">
-        <v>345.8536351025646</v>
+        <v>366.6577611255616</v>
       </c>
       <c r="R37">
-        <v>345.8536351025646</v>
+        <v>3299.919850130055</v>
       </c>
       <c r="S37">
-        <v>0.03067366808001009</v>
+        <v>0.02957333731016919</v>
       </c>
       <c r="T37">
-        <v>0.03067366808001009</v>
+        <v>0.0295733373101692</v>
       </c>
     </row>
   </sheetData>
